--- a/Assets/Haroharo/Data/UIMenu.xlsx
+++ b/Assets/Haroharo/Data/UIMenu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\GGJ_2024_Hachiban\Assets\Haroharo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E406573-1E14-4A86-83F3-3184F0010DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE2D40F-FA21-4994-9E17-6EDCB0EEE84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2C33BEA1-C393-470C-ABDA-632B0C5FE49E}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15720" xr2:uid="{2C33BEA1-C393-470C-ABDA-632B0C5FE49E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,13 +37,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲームを始める</t>
-    <rPh sb="4" eb="5">
-      <t>ハジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Setting</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -55,13 +48,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲームを終わる</t>
-    <rPh sb="4" eb="5">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Display</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -163,30 +149,44 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲームに戻る</t>
-    <rPh sb="4" eb="5">
+    <t>Return to the game</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>English</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Japanese</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>English</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>始める</t>
+    <rPh sb="0" eb="1">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終わる</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻る</t>
+    <rPh sb="0" eb="1">
       <t>モド</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Return to the game</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>English</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Japanese</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>English</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -233,9 +233,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,21 +556,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B770FF5C-46A9-4504-903F-A7906A0F59A5}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -575,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -586,10 +592,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -597,10 +603,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -608,10 +614,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -619,10 +625,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -630,10 +636,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
@@ -641,10 +647,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -652,10 +658,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
@@ -663,10 +669,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
@@ -674,10 +680,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
@@ -685,10 +691,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
@@ -696,10 +702,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
@@ -707,10 +713,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
@@ -718,10 +724,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
@@ -729,10 +735,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
@@ -740,10 +746,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Haroharo/Data/UIMenu.xlsx
+++ b/Assets/Haroharo/Data/UIMenu.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\GGJ_2024_Hachiban\Assets\Haroharo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE2D40F-FA21-4994-9E17-6EDCB0EEE84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF1AF22-11FD-4DA6-8D2C-DFDF8C451264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15720" xr2:uid="{2C33BEA1-C393-470C-ABDA-632B0C5FE49E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Text" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>日本語</t>
     <rPh sb="0" eb="2">
@@ -149,10 +150,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Return to the game</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -188,13 +185,44 @@
       <t>モド</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Return game</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トイレが空いているか確認しないと</t>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Eボタン押して行動</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If you don't check whether the restroom is available,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>press the E button and take action.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +237,12 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -233,12 +267,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B770FF5C-46A9-4504-903F-A7906A0F59A5}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A15" sqref="A15:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -567,13 +607,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -581,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -595,7 +635,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -617,7 +657,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -746,10 +786,85 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAB376D-9DBE-46F7-ACFB-86EAA1492320}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="28.125" customWidth="1"/>
+    <col min="3" max="3" width="35.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
-        <v>32</v>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Haroharo/Data/UIMenu.xlsx
+++ b/Assets/Haroharo/Data/UIMenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\GGJ_2024_Hachiban\Assets\Haroharo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF1AF22-11FD-4DA6-8D2C-DFDF8C451264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1505B4E-1AB7-4500-B08C-1B017780D88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15720" xr2:uid="{2C33BEA1-C393-470C-ABDA-632B0C5FE49E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>日本語</t>
     <rPh sb="0" eb="2">
@@ -216,6 +216,10 @@
   </si>
   <si>
     <t>press the E button and take action.</t>
+  </si>
+  <si>
+    <t>press the E button and take action.</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -596,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B770FF5C-46A9-4504-903F-A7906A0F59A5}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -808,7 +812,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
